--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Clec1b</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>102.620931611392</v>
+        <v>0.1953956666666667</v>
       </c>
       <c r="H2">
-        <v>102.620931611392</v>
+        <v>0.586187</v>
       </c>
       <c r="I2">
-        <v>0.7062443447006909</v>
+        <v>0.001304575379516338</v>
       </c>
       <c r="J2">
-        <v>0.7062443447006909</v>
+        <v>0.001304575379516338</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.59196544450154</v>
+        <v>1.727051</v>
       </c>
       <c r="N2">
-        <v>1.59196544450154</v>
+        <v>5.181153</v>
       </c>
       <c r="O2">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="P2">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="Q2">
-        <v>163.3689770078918</v>
+        <v>0.3374582815123334</v>
       </c>
       <c r="R2">
-        <v>163.3689770078918</v>
+        <v>3.037124533611</v>
       </c>
       <c r="S2">
-        <v>0.02748031035477627</v>
+        <v>5.37421401323848E-05</v>
       </c>
       <c r="T2">
-        <v>0.02748031035477627</v>
+        <v>5.374214013238479E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>102.620931611392</v>
+        <v>0.1953956666666667</v>
       </c>
       <c r="H3">
-        <v>102.620931611392</v>
+        <v>0.586187</v>
       </c>
       <c r="I3">
-        <v>0.7062443447006909</v>
+        <v>0.001304575379516338</v>
       </c>
       <c r="J3">
-        <v>0.7062443447006909</v>
+        <v>0.001304575379516338</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.54318617169803</v>
+        <v>1.552332</v>
       </c>
       <c r="N3">
-        <v>1.54318617169803</v>
+        <v>4.656995999999999</v>
       </c>
       <c r="O3">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="P3">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="Q3">
-        <v>158.3632025894694</v>
+        <v>0.303318946028</v>
       </c>
       <c r="R3">
-        <v>158.3632025894694</v>
+        <v>2.729870514252</v>
       </c>
       <c r="S3">
-        <v>0.02663828858844297</v>
+        <v>4.830525785051231E-05</v>
       </c>
       <c r="T3">
-        <v>0.02663828858844297</v>
+        <v>4.830525785051231E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>102.620931611392</v>
+        <v>0.1953956666666667</v>
       </c>
       <c r="H4">
-        <v>102.620931611392</v>
+        <v>0.586187</v>
       </c>
       <c r="I4">
-        <v>0.7062443447006909</v>
+        <v>0.001304575379516338</v>
       </c>
       <c r="J4">
-        <v>0.7062443447006909</v>
+        <v>0.001304575379516338</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.90100552244624</v>
+        <v>2.301410333333334</v>
       </c>
       <c r="N4">
-        <v>1.90100552244624</v>
+        <v>6.904231</v>
       </c>
       <c r="O4">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="P4">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="Q4">
-        <v>195.0829577118341</v>
+        <v>0.4496856063552223</v>
       </c>
       <c r="R4">
-        <v>195.0829577118341</v>
+        <v>4.047170457197001</v>
       </c>
       <c r="S4">
-        <v>0.03281492190888805</v>
+        <v>7.161497641709389E-05</v>
       </c>
       <c r="T4">
-        <v>0.03281492190888805</v>
+        <v>7.161497641709386E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>102.620931611392</v>
+        <v>0.1953956666666667</v>
       </c>
       <c r="H5">
-        <v>102.620931611392</v>
+        <v>0.586187</v>
       </c>
       <c r="I5">
-        <v>0.7062443447006909</v>
+        <v>0.001304575379516338</v>
       </c>
       <c r="J5">
-        <v>0.7062443447006909</v>
+        <v>0.001304575379516338</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.8773761374702</v>
+        <v>36.34288533333334</v>
       </c>
       <c r="N5">
-        <v>35.8773761374702</v>
+        <v>109.028656</v>
       </c>
       <c r="O5">
-        <v>0.8769073033937708</v>
+        <v>0.8668820697318579</v>
       </c>
       <c r="P5">
-        <v>0.8769073033937708</v>
+        <v>0.8668820697318579</v>
       </c>
       <c r="Q5">
-        <v>3681.769762999516</v>
+        <v>7.101242308296889</v>
       </c>
       <c r="R5">
-        <v>3681.769762999516</v>
+        <v>63.911180774672</v>
       </c>
       <c r="S5">
-        <v>0.6193108238485835</v>
+        <v>0.001130913005116347</v>
       </c>
       <c r="T5">
-        <v>0.6193108238485835</v>
+        <v>0.001130913005116347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.46375864077388</v>
+        <v>103.1326496666667</v>
       </c>
       <c r="H6">
-        <v>7.46375864077388</v>
+        <v>309.397949</v>
       </c>
       <c r="I6">
-        <v>0.05136610287478919</v>
+        <v>0.6885736919076192</v>
       </c>
       <c r="J6">
-        <v>0.05136610287478919</v>
+        <v>0.6885736919076191</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.59196544450154</v>
+        <v>1.727051</v>
       </c>
       <c r="N6">
-        <v>1.59196544450154</v>
+        <v>5.181153</v>
       </c>
       <c r="O6">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="P6">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="Q6">
-        <v>11.8820458422118</v>
+        <v>178.1153457394663</v>
       </c>
       <c r="R6">
-        <v>11.8820458422118</v>
+        <v>1603.038111655197</v>
       </c>
       <c r="S6">
-        <v>0.001998680002616935</v>
+        <v>0.02836587630198289</v>
       </c>
       <c r="T6">
-        <v>0.001998680002616935</v>
+        <v>0.02836587630198288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.46375864077388</v>
+        <v>103.1326496666667</v>
       </c>
       <c r="H7">
-        <v>7.46375864077388</v>
+        <v>309.397949</v>
       </c>
       <c r="I7">
-        <v>0.05136610287478919</v>
+        <v>0.6885736919076192</v>
       </c>
       <c r="J7">
-        <v>0.05136610287478919</v>
+        <v>0.6885736919076191</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.54318617169803</v>
+        <v>1.552332</v>
       </c>
       <c r="N7">
-        <v>1.54318617169803</v>
+        <v>4.656995999999999</v>
       </c>
       <c r="O7">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="P7">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="Q7">
-        <v>11.51796912333393</v>
+        <v>160.096112322356</v>
       </c>
       <c r="R7">
-        <v>11.51796912333393</v>
+        <v>1440.865010901204</v>
       </c>
       <c r="S7">
-        <v>0.001937438624902798</v>
+        <v>0.02549621145618149</v>
       </c>
       <c r="T7">
-        <v>0.001937438624902798</v>
+        <v>0.02549621145618149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.46375864077388</v>
+        <v>103.1326496666667</v>
       </c>
       <c r="H8">
-        <v>7.46375864077388</v>
+        <v>309.397949</v>
       </c>
       <c r="I8">
-        <v>0.05136610287478919</v>
+        <v>0.6885736919076192</v>
       </c>
       <c r="J8">
-        <v>0.05136610287478919</v>
+        <v>0.6885736919076191</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.90100552244624</v>
+        <v>2.301410333333334</v>
       </c>
       <c r="N8">
-        <v>1.90100552244624</v>
+        <v>6.904231</v>
       </c>
       <c r="O8">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="P8">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="Q8">
-        <v>14.18864639431699</v>
+        <v>237.3505456469132</v>
       </c>
       <c r="R8">
-        <v>14.18864639431699</v>
+        <v>2136.154910822219</v>
       </c>
       <c r="S8">
-        <v>0.002386673489491049</v>
+        <v>0.03779941694567129</v>
       </c>
       <c r="T8">
-        <v>0.002386673489491049</v>
+        <v>0.03779941694567128</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.46375864077388</v>
+        <v>103.1326496666667</v>
       </c>
       <c r="H9">
-        <v>7.46375864077388</v>
+        <v>309.397949</v>
       </c>
       <c r="I9">
-        <v>0.05136610287478919</v>
+        <v>0.6885736919076192</v>
       </c>
       <c r="J9">
-        <v>0.05136610287478919</v>
+        <v>0.6885736919076191</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.8773761374702</v>
+        <v>36.34288533333334</v>
       </c>
       <c r="N9">
-        <v>35.8773761374702</v>
+        <v>109.028656</v>
       </c>
       <c r="O9">
-        <v>0.8769073033937708</v>
+        <v>0.8668820697318579</v>
       </c>
       <c r="P9">
-        <v>0.8769073033937708</v>
+        <v>0.8668820697318579</v>
       </c>
       <c r="Q9">
-        <v>267.7800761543378</v>
+        <v>3748.138060958505</v>
       </c>
       <c r="R9">
-        <v>267.7800761543378</v>
+        <v>33733.24254862654</v>
       </c>
       <c r="S9">
-        <v>0.04504331075777841</v>
+        <v>0.5969121872037836</v>
       </c>
       <c r="T9">
-        <v>0.04504331075777841</v>
+        <v>0.5969121872037835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.36615844449613</v>
+        <v>10.40146633333333</v>
       </c>
       <c r="H10">
-        <v>1.36615844449613</v>
+        <v>31.204399</v>
       </c>
       <c r="I10">
-        <v>0.009401996846454052</v>
+        <v>0.06944625293294501</v>
       </c>
       <c r="J10">
-        <v>0.009401996846454052</v>
+        <v>0.069446252932945</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.59196544450154</v>
+        <v>1.727051</v>
       </c>
       <c r="N10">
-        <v>1.59196544450154</v>
+        <v>5.181153</v>
       </c>
       <c r="O10">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="P10">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="Q10">
-        <v>2.174877035351814</v>
+        <v>17.96386283244967</v>
       </c>
       <c r="R10">
-        <v>2.174877035351814</v>
+        <v>161.674765492047</v>
       </c>
       <c r="S10">
-        <v>0.0003658362622424725</v>
+        <v>0.002860846766995597</v>
       </c>
       <c r="T10">
-        <v>0.0003658362622424725</v>
+        <v>0.002860846766995597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.36615844449613</v>
+        <v>10.40146633333333</v>
       </c>
       <c r="H11">
-        <v>1.36615844449613</v>
+        <v>31.204399</v>
       </c>
       <c r="I11">
-        <v>0.009401996846454052</v>
+        <v>0.06944625293294501</v>
       </c>
       <c r="J11">
-        <v>0.009401996846454052</v>
+        <v>0.069446252932945</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.54318617169803</v>
+        <v>1.552332</v>
       </c>
       <c r="N11">
-        <v>1.54318617169803</v>
+        <v>4.656995999999999</v>
       </c>
       <c r="O11">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="P11">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="Q11">
-        <v>2.108236819894918</v>
+        <v>16.146529036156</v>
       </c>
       <c r="R11">
-        <v>2.108236819894918</v>
+        <v>145.318761325404</v>
       </c>
       <c r="S11">
-        <v>0.0003546267055909903</v>
+        <v>0.002571426080355362</v>
       </c>
       <c r="T11">
-        <v>0.0003546267055909903</v>
+        <v>0.002571426080355362</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.36615844449613</v>
+        <v>10.40146633333333</v>
       </c>
       <c r="H12">
-        <v>1.36615844449613</v>
+        <v>31.204399</v>
       </c>
       <c r="I12">
-        <v>0.009401996846454052</v>
+        <v>0.06944625293294501</v>
       </c>
       <c r="J12">
-        <v>0.009401996846454052</v>
+        <v>0.069446252932945</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.90100552244624</v>
+        <v>2.301410333333334</v>
       </c>
       <c r="N12">
-        <v>1.90100552244624</v>
+        <v>6.904231</v>
       </c>
       <c r="O12">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="P12">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="Q12">
-        <v>2.597074747523708</v>
+        <v>23.93804210135211</v>
       </c>
       <c r="R12">
-        <v>2.597074747523708</v>
+        <v>215.442378912169</v>
       </c>
       <c r="S12">
-        <v>0.0004368541774798293</v>
+        <v>0.00381226860796058</v>
       </c>
       <c r="T12">
-        <v>0.0004368541774798293</v>
+        <v>0.003812268607960578</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.36615844449613</v>
+        <v>10.40146633333333</v>
       </c>
       <c r="H13">
-        <v>1.36615844449613</v>
+        <v>31.204399</v>
       </c>
       <c r="I13">
-        <v>0.009401996846454052</v>
+        <v>0.06944625293294501</v>
       </c>
       <c r="J13">
-        <v>0.009401996846454052</v>
+        <v>0.069446252932945</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.8773761374702</v>
+        <v>36.34288533333334</v>
       </c>
       <c r="N13">
-        <v>35.8773761374702</v>
+        <v>109.028656</v>
       </c>
       <c r="O13">
-        <v>0.8769073033937708</v>
+        <v>0.8668820697318579</v>
       </c>
       <c r="P13">
-        <v>0.8769073033937708</v>
+        <v>0.8668820697318579</v>
       </c>
       <c r="Q13">
-        <v>49.01418037656887</v>
+        <v>378.0192982508605</v>
       </c>
       <c r="R13">
-        <v>49.01418037656887</v>
+        <v>3402.173684257744</v>
       </c>
       <c r="S13">
-        <v>0.00824467970114076</v>
+        <v>0.06020171147763348</v>
       </c>
       <c r="T13">
-        <v>0.00824467970114076</v>
+        <v>0.06020171147763347</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.2661813109584</v>
+        <v>1.718667</v>
       </c>
       <c r="H14">
-        <v>12.2661813109584</v>
+        <v>5.156001</v>
       </c>
       <c r="I14">
-        <v>0.08441670764345313</v>
+        <v>0.0114748228148383</v>
       </c>
       <c r="J14">
-        <v>0.08441670764345313</v>
+        <v>0.0114748228148383</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.59196544450154</v>
+        <v>1.727051</v>
       </c>
       <c r="N14">
-        <v>1.59196544450154</v>
+        <v>5.181153</v>
       </c>
       <c r="O14">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="P14">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="Q14">
-        <v>19.52733678303637</v>
+        <v>2.968225561017</v>
       </c>
       <c r="R14">
-        <v>19.52733678303637</v>
+        <v>26.714030049153</v>
       </c>
       <c r="S14">
-        <v>0.00328469508120967</v>
+        <v>0.0004727067100852051</v>
       </c>
       <c r="T14">
-        <v>0.00328469508120967</v>
+        <v>0.000472706710085205</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.2661813109584</v>
+        <v>1.718667</v>
       </c>
       <c r="H15">
-        <v>12.2661813109584</v>
+        <v>5.156001</v>
       </c>
       <c r="I15">
-        <v>0.08441670764345313</v>
+        <v>0.0114748228148383</v>
       </c>
       <c r="J15">
-        <v>0.08441670764345313</v>
+        <v>0.0114748228148383</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.54318617169803</v>
+        <v>1.552332</v>
       </c>
       <c r="N15">
-        <v>1.54318617169803</v>
+        <v>4.656995999999999</v>
       </c>
       <c r="O15">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="P15">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="Q15">
-        <v>18.92900137861182</v>
+        <v>2.667941781444</v>
       </c>
       <c r="R15">
-        <v>18.92900137861182</v>
+        <v>24.011476032996</v>
       </c>
       <c r="S15">
-        <v>0.003184049028874757</v>
+        <v>0.0004248848196607897</v>
       </c>
       <c r="T15">
-        <v>0.003184049028874757</v>
+        <v>0.0004248848196607897</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.2661813109584</v>
+        <v>1.718667</v>
       </c>
       <c r="H16">
-        <v>12.2661813109584</v>
+        <v>5.156001</v>
       </c>
       <c r="I16">
-        <v>0.08441670764345313</v>
+        <v>0.0114748228148383</v>
       </c>
       <c r="J16">
-        <v>0.08441670764345313</v>
+        <v>0.0114748228148383</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.90100552244624</v>
+        <v>2.301410333333334</v>
       </c>
       <c r="N16">
-        <v>1.90100552244624</v>
+        <v>6.904231</v>
       </c>
       <c r="O16">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="P16">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="Q16">
-        <v>23.31807841145878</v>
+        <v>3.955357993359</v>
       </c>
       <c r="R16">
-        <v>23.31807841145878</v>
+        <v>35.598221940231</v>
       </c>
       <c r="S16">
-        <v>0.003922336072367897</v>
+        <v>0.0006299131335589368</v>
       </c>
       <c r="T16">
-        <v>0.003922336072367897</v>
+        <v>0.0006299131335589367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.2661813109584</v>
+        <v>1.718667</v>
       </c>
       <c r="H17">
-        <v>12.2661813109584</v>
+        <v>5.156001</v>
       </c>
       <c r="I17">
-        <v>0.08441670764345313</v>
+        <v>0.0114748228148383</v>
       </c>
       <c r="J17">
-        <v>0.08441670764345313</v>
+        <v>0.0114748228148383</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.8773761374702</v>
+        <v>36.34288533333334</v>
       </c>
       <c r="N17">
-        <v>35.8773761374702</v>
+        <v>109.028656</v>
       </c>
       <c r="O17">
-        <v>0.8769073033937708</v>
+        <v>0.8668820697318579</v>
       </c>
       <c r="P17">
-        <v>0.8769073033937708</v>
+        <v>0.8668820697318579</v>
       </c>
       <c r="Q17">
-        <v>440.0784006636619</v>
+        <v>62.461317707184</v>
       </c>
       <c r="R17">
-        <v>440.0784006636619</v>
+        <v>562.1518593646559</v>
       </c>
       <c r="S17">
-        <v>0.0740256274610008</v>
+        <v>0.009947318151533368</v>
       </c>
       <c r="T17">
-        <v>0.0740256274610008</v>
+        <v>0.009947318151533366</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.5881074868018</v>
+        <v>12.54666866666667</v>
       </c>
       <c r="H18">
-        <v>21.5881074868018</v>
+        <v>37.640006</v>
       </c>
       <c r="I18">
-        <v>0.1485708479346128</v>
+        <v>0.08376887428831967</v>
       </c>
       <c r="J18">
-        <v>0.1485708479346128</v>
+        <v>0.08376887428831964</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.59196544450154</v>
+        <v>1.727051</v>
       </c>
       <c r="N18">
-        <v>1.59196544450154</v>
+        <v>5.181153</v>
       </c>
       <c r="O18">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="P18">
-        <v>0.0389104855295125</v>
+        <v>0.04119512063174863</v>
       </c>
       <c r="Q18">
-        <v>34.36752113117345</v>
+        <v>21.66873666743534</v>
       </c>
       <c r="R18">
-        <v>34.36752113117345</v>
+        <v>195.018630006918</v>
       </c>
       <c r="S18">
-        <v>0.005780963828667151</v>
+        <v>0.003450868881493115</v>
       </c>
       <c r="T18">
-        <v>0.005780963828667151</v>
+        <v>0.003450868881493114</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.5881074868018</v>
+        <v>12.54666866666667</v>
       </c>
       <c r="H19">
-        <v>21.5881074868018</v>
+        <v>37.640006</v>
       </c>
       <c r="I19">
-        <v>0.1485708479346128</v>
+        <v>0.08376887428831967</v>
       </c>
       <c r="J19">
-        <v>0.1485708479346128</v>
+        <v>0.08376887428831964</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.54318617169803</v>
+        <v>1.552332</v>
       </c>
       <c r="N19">
-        <v>1.54318617169803</v>
+        <v>4.656995999999999</v>
       </c>
       <c r="O19">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="P19">
-        <v>0.03771823277357694</v>
+        <v>0.03702757127642647</v>
       </c>
       <c r="Q19">
-        <v>33.31446894676325</v>
+        <v>19.476595264664</v>
       </c>
       <c r="R19">
-        <v>33.31446894676325</v>
+        <v>175.289357381976</v>
       </c>
       <c r="S19">
-        <v>0.005603829825765427</v>
+        <v>0.003101757963456765</v>
       </c>
       <c r="T19">
-        <v>0.005603829825765427</v>
+        <v>0.003101757963456765</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.5881074868018</v>
+        <v>12.54666866666667</v>
       </c>
       <c r="H20">
-        <v>21.5881074868018</v>
+        <v>37.640006</v>
       </c>
       <c r="I20">
-        <v>0.1485708479346128</v>
+        <v>0.08376887428831967</v>
       </c>
       <c r="J20">
-        <v>0.1485708479346128</v>
+        <v>0.08376887428831964</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.90100552244624</v>
+        <v>2.301410333333334</v>
       </c>
       <c r="N20">
-        <v>1.90100552244624</v>
+        <v>6.904231</v>
       </c>
       <c r="O20">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="P20">
-        <v>0.04646397830313974</v>
+        <v>0.05489523835996708</v>
       </c>
       <c r="Q20">
-        <v>41.03911155157324</v>
+        <v>28.87503291837623</v>
       </c>
       <c r="R20">
-        <v>41.03911155157324</v>
+        <v>259.875296265386</v>
       </c>
       <c r="S20">
-        <v>0.006903192654912921</v>
+        <v>0.004598512321203426</v>
       </c>
       <c r="T20">
-        <v>0.006903192654912921</v>
+        <v>0.004598512321203424</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,309 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>12.54666866666667</v>
+      </c>
+      <c r="H21">
+        <v>37.640006</v>
+      </c>
+      <c r="I21">
+        <v>0.08376887428831967</v>
+      </c>
+      <c r="J21">
+        <v>0.08376887428831964</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>36.34288533333334</v>
+      </c>
+      <c r="N21">
+        <v>109.028656</v>
+      </c>
+      <c r="O21">
+        <v>0.8668820697318579</v>
+      </c>
+      <c r="P21">
+        <v>0.8668820697318579</v>
+      </c>
+      <c r="Q21">
+        <v>455.982140667993</v>
+      </c>
+      <c r="R21">
+        <v>4103.839266011936</v>
+      </c>
+      <c r="S21">
+        <v>0.07261773512216636</v>
+      </c>
+      <c r="T21">
+        <v>0.07261773512216635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.78236733333334</v>
+      </c>
+      <c r="H22">
+        <v>65.34710200000001</v>
+      </c>
+      <c r="I22">
+        <v>0.1454317826767616</v>
+      </c>
+      <c r="J22">
+        <v>0.1454317826767616</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.727051</v>
+      </c>
+      <c r="N22">
+        <v>5.181153</v>
+      </c>
+      <c r="O22">
+        <v>0.04119512063174863</v>
+      </c>
+      <c r="P22">
+        <v>0.04119512063174863</v>
+      </c>
+      <c r="Q22">
+        <v>37.61925928540067</v>
+      </c>
+      <c r="R22">
+        <v>338.573333568606</v>
+      </c>
+      <c r="S22">
+        <v>0.005991079831059445</v>
+      </c>
+      <c r="T22">
+        <v>0.005991079831059444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.78236733333334</v>
+      </c>
+      <c r="H23">
+        <v>65.34710200000001</v>
+      </c>
+      <c r="I23">
+        <v>0.1454317826767616</v>
+      </c>
+      <c r="J23">
+        <v>0.1454317826767616</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.552332</v>
+      </c>
+      <c r="N23">
+        <v>4.656995999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.03702757127642647</v>
+      </c>
+      <c r="P23">
+        <v>0.03702757127642647</v>
+      </c>
+      <c r="Q23">
+        <v>33.813465847288</v>
+      </c>
+      <c r="R23">
+        <v>304.321192625592</v>
+      </c>
+      <c r="S23">
+        <v>0.005384985698921554</v>
+      </c>
+      <c r="T23">
+        <v>0.005384985698921554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>21.5881074868018</v>
-      </c>
-      <c r="H21">
-        <v>21.5881074868018</v>
-      </c>
-      <c r="I21">
-        <v>0.1485708479346128</v>
-      </c>
-      <c r="J21">
-        <v>0.1485708479346128</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>35.8773761374702</v>
-      </c>
-      <c r="N21">
-        <v>35.8773761374702</v>
-      </c>
-      <c r="O21">
-        <v>0.8769073033937708</v>
-      </c>
-      <c r="P21">
-        <v>0.8769073033937708</v>
-      </c>
-      <c r="Q21">
-        <v>774.5246524001246</v>
-      </c>
-      <c r="R21">
-        <v>774.5246524001246</v>
-      </c>
-      <c r="S21">
-        <v>0.1302828616252673</v>
-      </c>
-      <c r="T21">
-        <v>0.1302828616252673</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.78236733333334</v>
+      </c>
+      <c r="H24">
+        <v>65.34710200000001</v>
+      </c>
+      <c r="I24">
+        <v>0.1454317826767616</v>
+      </c>
+      <c r="J24">
+        <v>0.1454317826767616</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.301410333333334</v>
+      </c>
+      <c r="N24">
+        <v>6.904231</v>
+      </c>
+      <c r="O24">
+        <v>0.05489523835996708</v>
+      </c>
+      <c r="P24">
+        <v>0.05489523835996708</v>
+      </c>
+      <c r="Q24">
+        <v>50.13016526539579</v>
+      </c>
+      <c r="R24">
+        <v>451.1714873885621</v>
+      </c>
+      <c r="S24">
+        <v>0.007983512375155761</v>
+      </c>
+      <c r="T24">
+        <v>0.007983512375155757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.78236733333334</v>
+      </c>
+      <c r="H25">
+        <v>65.34710200000001</v>
+      </c>
+      <c r="I25">
+        <v>0.1454317826767616</v>
+      </c>
+      <c r="J25">
+        <v>0.1454317826767616</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>36.34288533333334</v>
+      </c>
+      <c r="N25">
+        <v>109.028656</v>
+      </c>
+      <c r="O25">
+        <v>0.8668820697318579</v>
+      </c>
+      <c r="P25">
+        <v>0.8668820697318579</v>
+      </c>
+      <c r="Q25">
+        <v>791.6340782838793</v>
+      </c>
+      <c r="R25">
+        <v>7124.706704554913</v>
+      </c>
+      <c r="S25">
+        <v>0.1260722047716248</v>
+      </c>
+      <c r="T25">
+        <v>0.1260722047716248</v>
       </c>
     </row>
   </sheetData>
